--- a/va_facility_data_2025-02-20/Somerset VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Somerset%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Somerset VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Somerset%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Re9b03e321aa54bffb8dc0a2d72bad9fb"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rfb29d604010940a0bb406a05fde8cb68"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8b3afbc7bda14311abec17f50456d95f"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb1184f455fca47519594f2c30cbcaf0f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5a46cf9749ca42969ef5a8a9940559f1"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rbc152fe31df945439833cf64e378c2c6"/>
   </x:sheets>
 </x:workbook>
 </file>
